--- a/Src/lbm/20171025/spReports/listeSnapTriée.xlsx
+++ b/Src/lbm/20171025/spReports/listeSnapTriée.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">listeSnapTriée!$A$1:$D$712</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2169,8 +2169,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2653,8 +2653,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
